--- a/Use Cases.xlsx
+++ b/Use Cases.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/29medium/Google Drive/Universidade/3º ano/1º semestre/DSS/DSS_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CFCEB8-5066-C847-959E-237201A9AE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60431BF2-637E-C740-9E91-49D7A6A1AF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" activeTab="1" xr2:uid="{E51B2546-C23E-1844-A234-E4074F858F97}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22920" windowHeight="19980" activeTab="11" xr2:uid="{E51B2546-C23E-1844-A234-E4074F858F97}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisição de material" sheetId="2" r:id="rId1"/>
     <sheet name="Solicitar autorização de descar" sheetId="3" r:id="rId2"/>
-    <sheet name="Template" sheetId="1" r:id="rId3"/>
+    <sheet name="Registar Paletes" sheetId="4" r:id="rId3"/>
+    <sheet name="Notificar Satisfação Requisição" sheetId="5" r:id="rId4"/>
+    <sheet name="Autorizar Pedido de Descarga" sheetId="6" r:id="rId5"/>
+    <sheet name="Calcular Disponibilidade do Arm" sheetId="7" r:id="rId6"/>
+    <sheet name="Robot recolhe palete" sheetId="10" r:id="rId7"/>
+    <sheet name="Robot entrega palete" sheetId="11" r:id="rId8"/>
+    <sheet name="Sistema notifica robot" sheetId="12" r:id="rId9"/>
+    <sheet name="Carregar Paletes" sheetId="14" r:id="rId10"/>
+    <sheet name="Descarregar paletes" sheetId="13" r:id="rId11"/>
+    <sheet name="Sistema notifica disponibilidad" sheetId="15" r:id="rId12"/>
+    <sheet name="Template" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
   <si>
     <t>Use Case:</t>
   </si>
@@ -120,13 +130,218 @@
     <t>3. Verifica se o pedido foi autorizado</t>
   </si>
   <si>
-    <t>Fluxo alternativo [Pedido não autorizado] (Passo 3):</t>
-  </si>
-  <si>
     <t>3.1 Informa que o pedido não foi autorizado</t>
   </si>
   <si>
-    <t>3.2 Coloca o camião numa fila de espera</t>
+    <t>Registar paletes</t>
+  </si>
+  <si>
+    <t>Funcionário</t>
+  </si>
+  <si>
+    <t>Sistema regista as paletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Lê QR-code</t>
+  </si>
+  <si>
+    <t>3. Regista a palete</t>
+  </si>
+  <si>
+    <t>2. Valida o QR-code</t>
+  </si>
+  <si>
+    <t>Fluxo de exceção [QR-code inválido]
+(passo 2):</t>
+  </si>
+  <si>
+    <t>2.1 Rejeita as paletes</t>
+  </si>
+  <si>
+    <t>Notificar Satisfação Requisição</t>
+  </si>
+  <si>
+    <t>1. Notifica satisfação da requisição</t>
+  </si>
+  <si>
+    <t>2. Regista satisfação da requisição</t>
+  </si>
+  <si>
+    <t>O Sistema regista satisfação da requisição</t>
+  </si>
+  <si>
+    <t>Autorizar Pedido de Descarga</t>
+  </si>
+  <si>
+    <t>Gestor</t>
+  </si>
+  <si>
+    <t>Sistema regista autorização do pedido de descarga</t>
+  </si>
+  <si>
+    <t>Fluxo de exceção [Pedido não autorizado] (Passo 3):</t>
+  </si>
+  <si>
+    <t>3.2 Rejeita descarga</t>
+  </si>
+  <si>
+    <t>1. Informa o gestor de pedido de descarga</t>
+  </si>
+  <si>
+    <t>2. Verifica disponibilidade do armazém</t>
+  </si>
+  <si>
+    <t>3. Autoriza pedido de descarga</t>
+  </si>
+  <si>
+    <t>4. Regista autorização do pedido de descarga</t>
+  </si>
+  <si>
+    <t>2.1 Rejeita pedido de descarga</t>
+  </si>
+  <si>
+    <t>Fluxo de exceção [Armazém
+ sem disponibilidade] (Passo 2):</t>
+  </si>
+  <si>
+    <t>Calcular Disponibilidade do Armazém</t>
+  </si>
+  <si>
+    <t>Gestor calcula disponibilidade do armazém</t>
+  </si>
+  <si>
+    <t>1. Solicita Listagem da Localização das paletes</t>
+  </si>
+  <si>
+    <t>2. Fornece Listagem</t>
+  </si>
+  <si>
+    <t>3. Calcula disponibilidade do armazém</t>
+  </si>
+  <si>
+    <t>2.2 Regista rejeição do pedido de descarga</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot entrega palete</t>
+  </si>
+  <si>
+    <t>1. Envia informação ao ator</t>
+  </si>
+  <si>
+    <t>2. Verifica se a palete existe</t>
+  </si>
+  <si>
+    <t>3. Recolhe palete</t>
+  </si>
+  <si>
+    <t>4. Notifica sistema da recolha da palete</t>
+  </si>
+  <si>
+    <t>Robot recolhe a palete</t>
+  </si>
+  <si>
+    <t>Sistema regista a recolha da palete</t>
+  </si>
+  <si>
+    <t>5. Regista a recolha da palete</t>
+  </si>
+  <si>
+    <t>2.1 Notifica inexistência da palete</t>
+  </si>
+  <si>
+    <t>2.2 Cancela recolha</t>
+  </si>
+  <si>
+    <t>Fluxo de exceção [Palete não existe]
+ (Passo 2):</t>
+  </si>
+  <si>
+    <t>Sistema regista entrega da palete</t>
+  </si>
+  <si>
+    <t>2. Entrega palete</t>
+  </si>
+  <si>
+    <t>3. Notifica sistema da entrega da palete</t>
+  </si>
+  <si>
+    <t>4. Sistema regista entrega da palete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot recolheu palete </t>
+  </si>
+  <si>
+    <t>Robot recebe notificação</t>
+  </si>
+  <si>
+    <t>1. Transporta palete</t>
+  </si>
+  <si>
+    <t>1. Envia notificação com informações do transporte</t>
+  </si>
+  <si>
+    <t>2. Recebe notificação</t>
+  </si>
+  <si>
+    <t>Sistema notifica robot</t>
+  </si>
+  <si>
+    <t>Camião descarrega paletes</t>
+  </si>
+  <si>
+    <t>Camião solicitou pedido de descarga</t>
+  </si>
+  <si>
+    <t>Descarregar paletes</t>
+  </si>
+  <si>
+    <t>1. Verifica se pedido de descarga foi autorizado</t>
+  </si>
+  <si>
+    <t>2. Descarrega paletes</t>
+  </si>
+  <si>
+    <t>Fluxo de exceção[Pedido de descarga rejeitado]
+(Passo 1):</t>
+  </si>
+  <si>
+    <t>1.1 Abandona zona de descarga</t>
+  </si>
+  <si>
+    <t>Carregar paletes</t>
+  </si>
+  <si>
+    <t>Camião carrega paletes</t>
+  </si>
+  <si>
+    <t>1. Indica paletes a carregar</t>
+  </si>
+  <si>
+    <t>2. Carrega paletes</t>
+  </si>
+  <si>
+    <t>Servidor de Produção requisitou material</t>
+  </si>
+  <si>
+    <t>Sistema notifica disponibilidade das paletes em falta</t>
+  </si>
+  <si>
+    <t>Servidor de produção</t>
+  </si>
+  <si>
+    <t>Servidor de produção recebe notificação</t>
+  </si>
+  <si>
+    <t>Paletes em falta já estão disponíveis</t>
+  </si>
+  <si>
+    <t>1. Notifica ator da disponibilidade das paletes</t>
+  </si>
+  <si>
+    <t>3. Efetua nova requisição de material</t>
   </si>
 </sst>
 </file>
@@ -253,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,11 +503,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,7 +835,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,37 +848,37 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -749,138 +973,300 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEEF29F-95D6-DF47-9D3A-9EC4F375AD29}">
-  <dimension ref="A1:C12"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12357198-BC9B-FF4A-91A5-A57DE6977968}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="64.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A5:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CEF13B-6413-4E4A-BD3B-97558DE5466C}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A887FC02-F692-B24D-A081-F114645D7F50}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="46.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A19812-75FC-6B45-849A-F936308338CF}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="A1:C22"/>
+      <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,34 +1279,34 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -931,32 +1317,32 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -967,32 +1353,32 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1003,27 +1389,27 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
@@ -1055,4 +1441,955 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEEF29F-95D6-DF47-9D3A-9EC4F375AD29}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="64.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11740E9C-BF44-B14E-8253-C6AF8E7D6526}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="2" max="3" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED8B8CA-714B-2645-823C-CAB1C90056A0}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="2" max="3" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66E5738-FE81-4E43-9292-293E1013F266}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="2" max="3" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CE9DCA-6F60-0344-BF49-E6C046A50D23}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="2" max="3" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570A511D-AF4E-CB47-B815-381756F89892}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="2" max="3" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441F1014-A8CD-604F-B25A-3F2E5AE648E7}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
+    <col min="3" max="3" width="89.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8D0830-5199-214A-84DF-FB08F44C7AA4}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Use Cases.xlsx
+++ b/Use Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/29medium/Google Drive/Universidade/3º ano/1º semestre/DSS/DSS_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luissobral/LEI/3ºano/DSS/DSS_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB4569-4898-7541-A27A-3627C73BA02B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A82158-D15A-F945-82A3-1B86587548E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" activeTab="9" xr2:uid="{E51B2546-C23E-1844-A234-E4074F858F97}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" firstSheet="7" activeTab="14" xr2:uid="{E51B2546-C23E-1844-A234-E4074F858F97}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisição de material" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="Descarregar paletes" sheetId="13" r:id="rId11"/>
     <sheet name="Sistema notifica disponibilidad" sheetId="15" r:id="rId12"/>
     <sheet name="Atualizar Listagem" sheetId="1" r:id="rId13"/>
+    <sheet name="Terminar Sessão" sheetId="16" r:id="rId14"/>
+    <sheet name="Iniciar sessão" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="141">
   <si>
     <t>Use Case:</t>
   </si>
@@ -445,6 +447,43 @@
   <si>
     <t>Fluxo de exceção [Pedido de descarga rejeitado]
 (Passo 1):</t>
+  </si>
+  <si>
+    <t>Iniciar sessão</t>
+  </si>
+  <si>
+    <t>Terminar sessão</t>
+  </si>
+  <si>
+    <t>Sistema regista sessão terminada</t>
+  </si>
+  <si>
+    <t>2. Regista sessão terminada</t>
+  </si>
+  <si>
+    <t>1. Termina sessão</t>
+  </si>
+  <si>
+    <t>Sistema regista sessão iniciada</t>
+  </si>
+  <si>
+    <t>1. Solicita dados</t>
+  </si>
+  <si>
+    <t>2. Submete dados</t>
+  </si>
+  <si>
+    <t>3. Verifica dados</t>
+  </si>
+  <si>
+    <t>4. Sistema regista sessão iniciada</t>
+  </si>
+  <si>
+    <t>Fluxo de exceção [Dados lnválidos]
+ (Passo 3):</t>
+  </si>
+  <si>
+    <t>3.1 Notifica que os dados estão incorretos</t>
   </si>
 </sst>
 </file>
@@ -669,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,15 +716,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,33 +723,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,17 +732,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,20 +751,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,166 +1140,166 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1288,139 +1330,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12357198-BC9B-FF4A-91A5-A57DE6977968}">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="65" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="77.5" style="26" customWidth="1"/>
+    <col min="2" max="4" width="77.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="35" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="22"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="22"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="31"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1451,83 +1493,83 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="20"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1557,72 +1599,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1642,97 +1684,97 @@
   <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="77.5" style="26" customWidth="1"/>
+    <col min="2" max="4" width="77.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="20"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1754,15 +1796,225 @@
     <row r="27" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F8E818-B165-7740-93BE-661381657702}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
+    <col min="3" max="3" width="60.83203125" customWidth="1"/>
+    <col min="4" max="4" width="64.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B7" s="28"/>
+      <c r="C7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B8" s="28"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1A3262-A722-1743-AFB1-7FCEDCE257FE}">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C15:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="43.83203125" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B7" s="23"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B8" s="23"/>
+      <c r="C8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B9" s="23"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B10" s="23"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B11" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B12" s="33"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1780,103 +2032,103 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1908,88 +2160,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2037,63 +2289,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2143,40 +2395,40 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2187,35 +2439,35 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2226,14 +2478,14 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>50</v>
@@ -2283,72 +2535,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2383,7 +2635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570A511D-AF4E-CB47-B815-381756F89892}">
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2393,109 +2645,109 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2534,125 +2786,125 @@
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B2" sqref="B2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="77.5" style="26" customWidth="1"/>
+    <col min="2" max="4" width="77.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="22"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2680,99 +2932,99 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="77.33203125" style="26" customWidth="1"/>
+    <col min="2" max="4" width="77.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Use Cases.xlsx
+++ b/Use Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luissobral/LEI/3ºano/DSS/DSS_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A82158-D15A-F945-82A3-1B86587548E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D671386F-FF06-1745-9089-F9C3F8A42E48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" firstSheet="7" activeTab="14" xr2:uid="{E51B2546-C23E-1844-A234-E4074F858F97}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{E51B2546-C23E-1844-A234-E4074F858F97}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisição de material" sheetId="2" r:id="rId1"/>
@@ -1130,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C62DC92-317C-3F4C-A2C4-326EA8B1CFC0}">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M18" sqref="L18:M18"/>
     </sheetView>
   </sheetViews>
@@ -1901,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1A3262-A722-1743-AFB1-7FCEDCE257FE}">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
@@ -2022,7 +2022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEEF29F-95D6-DF47-9D3A-9EC4F375AD29}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -2150,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11740E9C-BF44-B14E-8253-C6AF8E7D6526}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/Use Cases.xlsx
+++ b/Use Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luissobral/LEI/3ºano/DSS/DSS_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D671386F-FF06-1745-9089-F9C3F8A42E48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B72C7C-CCB4-594A-8946-1B4C99656CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{E51B2546-C23E-1844-A234-E4074F858F97}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" firstSheet="7" activeTab="14" xr2:uid="{E51B2546-C23E-1844-A234-E4074F858F97}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisição de material" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Registar Paletes" sheetId="4" r:id="rId3"/>
     <sheet name="Notificar Satisfação Requisição" sheetId="5" r:id="rId4"/>
     <sheet name="Autorizar Pedido de Descarga" sheetId="6" r:id="rId5"/>
-    <sheet name="Calcular Disponibilidade do Arm" sheetId="7" r:id="rId6"/>
+    <sheet name="Consultar listagem" sheetId="7" r:id="rId6"/>
     <sheet name="Robot recolhe palete" sheetId="10" r:id="rId7"/>
     <sheet name="Robot entrega palete" sheetId="11" r:id="rId8"/>
     <sheet name="Sistema notifica robot" sheetId="12" r:id="rId9"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="140">
   <si>
     <t>Use Case:</t>
   </si>
@@ -187,19 +187,10 @@
  sem disponibilidade] (Passo 2):</t>
   </si>
   <si>
-    <t>Calcular Disponibilidade do Armazém</t>
-  </si>
-  <si>
-    <t>Gestor calcula disponibilidade do armazém</t>
-  </si>
-  <si>
     <t>1. Solicita Listagem da Localização das paletes</t>
   </si>
   <si>
     <t>2. Fornece Listagem</t>
-  </si>
-  <si>
-    <t>3. Calcula disponibilidade do armazém</t>
   </si>
   <si>
     <t>2.2 Regista rejeição do pedido de descarga</t>
@@ -340,9 +331,6 @@
     <t>2.2.2 Cria registo das paletes indisponíveis para uma entrega futura</t>
   </si>
   <si>
-    <t>2.2.3 Regressa a 2.4</t>
-  </si>
-  <si>
     <t>Fluxo alternativo 2 [Pedido por fases]
  (Passo 2.2 - Alternativo 1):</t>
   </si>
@@ -484,6 +472,15 @@
   </si>
   <si>
     <t>3.1 Notifica que os dados estão incorretos</t>
+  </si>
+  <si>
+    <t>Consultar listagem</t>
+  </si>
+  <si>
+    <t>Gestor consulta listagem</t>
+  </si>
+  <si>
+    <t>2.2.3 Regressa a3</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1128,7 @@
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="L18:M18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1206,7 @@
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1228,7 +1225,7 @@
     <row r="12" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -1236,19 +1233,19 @@
       <c r="B13" s="20"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
@@ -1260,7 +1257,7 @@
     <row r="16" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -1268,19 +1265,19 @@
       <c r="B17" s="20"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="21"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1292,7 +1289,7 @@
     <row r="20" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="20"/>
       <c r="C20" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -1300,7 +1297,7 @@
       <c r="B21" s="20"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -1362,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="25"/>
     </row>
@@ -1371,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -1390,26 +1387,26 @@
       <c r="B7" s="28"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="28"/>
       <c r="C8" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="28"/>
       <c r="C9" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
@@ -1422,33 +1419,33 @@
       <c r="B11" s="33"/>
       <c r="C11" s="14"/>
       <c r="D11" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="33"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="33"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>6</v>
@@ -1460,7 +1457,7 @@
     <row r="16" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="35"/>
       <c r="C16" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D16" s="10"/>
     </row>
@@ -1497,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -1515,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="25"/>
     </row>
@@ -1524,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -1543,19 +1540,19 @@
       <c r="B7" s="28"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="28"/>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -1567,7 +1564,7 @@
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="28"/>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -1603,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -1612,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D3" s="25"/>
     </row>
@@ -1621,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="25"/>
     </row>
@@ -1630,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -1649,20 +1646,20 @@
       <c r="B7" s="28"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="28"/>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="28"/>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1684,7 +1681,7 @@
   <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1697,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -1724,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -1742,7 +1739,7 @@
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="28"/>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -1750,12 +1747,12 @@
       <c r="B8" s="28"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -1767,7 +1764,7 @@
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="28"/>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -1775,7 +1772,7 @@
       <c r="B11" s="28"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D2" s="27"/>
     </row>
@@ -1855,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D5" s="27"/>
     </row>
@@ -1873,7 +1870,7 @@
     <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="28"/>
       <c r="C7" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -1881,7 +1878,7 @@
       <c r="B8" s="28"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1901,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1A3262-A722-1743-AFB1-7FCEDCE257FE}">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C15:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1917,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -1944,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -1963,13 +1960,13 @@
       <c r="B7" s="23"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1977,19 +1974,19 @@
       <c r="B9" s="23"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="21" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -2002,7 +1999,7 @@
       <c r="B12" s="33"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2022,7 +2019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEEF29F-95D6-DF47-9D3A-9EC4F375AD29}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -2150,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11740E9C-BF44-B14E-8253-C6AF8E7D6526}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2311,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4" s="25"/>
     </row>
@@ -2423,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" s="31"/>
     </row>
@@ -2488,7 +2485,7 @@
       <c r="B13" s="30"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2523,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CE9DCA-6F60-0344-BF49-E6C046A50D23}">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2539,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -2566,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -2584,7 +2581,7 @@
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="28"/>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -2592,16 +2589,10 @@
       <c r="B8" s="28"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
-      <c r="C9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2617,14 +2608,13 @@
     <row r="22" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2636,7 +2626,7 @@
   <dimension ref="B2:D30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2649,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -2658,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="25"/>
     </row>
@@ -2676,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -2695,27 +2685,27 @@
       <c r="B7" s="23"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -2723,12 +2713,12 @@
       <c r="B11" s="24"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -2740,7 +2730,7 @@
     <row r="13" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -2748,7 +2738,7 @@
       <c r="B14" s="24"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2785,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441F1014-A8CD-604F-B25A-3F2E5AE648E7}">
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D15"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2799,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -2808,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="25"/>
     </row>
@@ -2817,7 +2807,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" s="25"/>
     </row>
@@ -2826,7 +2816,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -2844,28 +2834,28 @@
     <row r="7" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="23"/>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -2873,12 +2863,12 @@
       <c r="B11" s="24"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -2890,7 +2880,7 @@
     <row r="13" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
       <c r="C13" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -2898,14 +2888,14 @@
       <c r="B14" s="33"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="34"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2926,8 +2916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8D0830-5199-214A-84DF-FB08F44C7AA4}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2940,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -2949,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="25"/>
     </row>
@@ -2967,7 +2957,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -2986,26 +2976,26 @@
       <c r="B7" s="28"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="28"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="28"/>
       <c r="C9" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -3018,14 +3008,14 @@
       <c r="B11" s="33"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="34"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.25"/>
